--- a/validation.xlsx
+++ b/validation.xlsx
@@ -85,7 +85,7 @@
         <v>33973.0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.593710190247837</v>
+        <v>95.55621558918193</v>
       </c>
     </row>
     <row r="3">
@@ -93,7 +93,7 @@
         <v>33977.0</v>
       </c>
       <c r="B3" t="n">
-        <v>165.40335182708554</v>
+        <v>127.17595616281211</v>
       </c>
     </row>
     <row r="4">
@@ -101,7 +101,7 @@
         <v>33981.0</v>
       </c>
       <c r="B4" t="n">
-        <v>133.8492737351924</v>
+        <v>101.49009695807223</v>
       </c>
     </row>
     <row r="5">
@@ -109,7 +109,7 @@
         <v>33985.0</v>
       </c>
       <c r="B5" t="n">
-        <v>117.07476913910178</v>
+        <v>97.34624430260963</v>
       </c>
     </row>
     <row r="6">
@@ -117,7 +117,7 @@
         <v>33989.0</v>
       </c>
       <c r="B6" t="n">
-        <v>85.69217431781279</v>
+        <v>13.559598856951355</v>
       </c>
     </row>
     <row r="7">
@@ -125,7 +125,7 @@
         <v>33993.0</v>
       </c>
       <c r="B7" t="n">
-        <v>69.20142622613555</v>
+        <v>2.046084171117561</v>
       </c>
     </row>
     <row r="8">
@@ -133,7 +133,7 @@
         <v>33997.0</v>
       </c>
       <c r="B8" t="n">
-        <v>37.14365229801797</v>
+        <v>15.30670477597949</v>
       </c>
     </row>
     <row r="9">
@@ -141,7 +141,7 @@
         <v>34001.0</v>
       </c>
       <c r="B9" t="n">
-        <v>33.65791389141463</v>
+        <v>29.655340370802723</v>
       </c>
     </row>
     <row r="10">
@@ -149,7 +149,7 @@
         <v>34005.0</v>
       </c>
       <c r="B10" t="n">
-        <v>30.04086252419172</v>
+        <v>19.49092449718555</v>
       </c>
     </row>
     <row r="11">
@@ -157,7 +157,7 @@
         <v>34009.0</v>
       </c>
       <c r="B11" t="n">
-        <v>23.774959592377076</v>
+        <v>18.02491002498718</v>
       </c>
     </row>
     <row r="12">
@@ -165,7 +165,7 @@
         <v>34013.0</v>
       </c>
       <c r="B12" t="n">
-        <v>21.85929168866839</v>
+        <v>18.420660639092567</v>
       </c>
     </row>
     <row r="13">
@@ -173,7 +173,7 @@
         <v>34017.0</v>
       </c>
       <c r="B13" t="n">
-        <v>19.56441425185127</v>
+        <v>21.990416772038746</v>
       </c>
     </row>
     <row r="14">
@@ -181,7 +181,7 @@
         <v>34021.0</v>
       </c>
       <c r="B14" t="n">
-        <v>18.517237616706577</v>
+        <v>21.70308854689474</v>
       </c>
     </row>
     <row r="15">
@@ -189,7 +189,7 @@
         <v>34025.0</v>
       </c>
       <c r="B15" t="n">
-        <v>22.64246589676405</v>
+        <v>21.277559931910563</v>
       </c>
     </row>
     <row r="16">
@@ -197,7 +197,7 @@
         <v>34029.0</v>
       </c>
       <c r="B16" t="n">
-        <v>26.08694827811027</v>
+        <v>11.052724831197521</v>
       </c>
     </row>
     <row r="17">
@@ -205,7 +205,7 @@
         <v>34033.0</v>
       </c>
       <c r="B17" t="n">
-        <v>21.177303840394654</v>
+        <v>21.375868202286373</v>
       </c>
     </row>
     <row r="18">
@@ -213,7 +213,7 @@
         <v>34037.0</v>
       </c>
       <c r="B18" t="n">
-        <v>17.5973696589047</v>
+        <v>20.12306066091782</v>
       </c>
     </row>
     <row r="19">
@@ -221,7 +221,7 @@
         <v>34041.0</v>
       </c>
       <c r="B19" t="n">
-        <v>21.681959174596926</v>
+        <v>18.659141307866058</v>
       </c>
     </row>
     <row r="20">
@@ -229,7 +229,7 @@
         <v>34045.0</v>
       </c>
       <c r="B20" t="n">
-        <v>20.578375404102957</v>
+        <v>24.296515406975196</v>
       </c>
     </row>
     <row r="21">
@@ -237,7 +237,7 @@
         <v>34049.0</v>
       </c>
       <c r="B21" t="n">
-        <v>16.21548524829338</v>
+        <v>16.106968992846266</v>
       </c>
     </row>
     <row r="22">
@@ -245,7 +245,7 @@
         <v>34053.0</v>
       </c>
       <c r="B22" t="n">
-        <v>13.107505197192657</v>
+        <v>17.73036330578081</v>
       </c>
     </row>
     <row r="23">
@@ -253,7 +253,7 @@
         <v>34057.0</v>
       </c>
       <c r="B23" t="n">
-        <v>3.7499999999999982</v>
+        <v>106.86705760068111</v>
       </c>
     </row>
     <row r="24">
@@ -261,7 +261,7 @@
         <v>34061.0</v>
       </c>
       <c r="B24" t="n">
-        <v>11.391457648035713</v>
+        <v>25.350466098156215</v>
       </c>
     </row>
     <row r="25">
@@ -269,7 +269,7 @@
         <v>34065.0</v>
       </c>
       <c r="B25" t="n">
-        <v>59.11550126125472</v>
+        <v>49.37987703388486</v>
       </c>
     </row>
     <row r="26">
@@ -277,7 +277,7 @@
         <v>34070.0</v>
       </c>
       <c r="B26" t="n">
-        <v>23.63469153243016</v>
+        <v>30.424749272773653</v>
       </c>
     </row>
     <row r="27">
@@ -285,7 +285,7 @@
         <v>34074.0</v>
       </c>
       <c r="B27" t="n">
-        <v>42.779703423741545</v>
+        <v>38.296601084897205</v>
       </c>
     </row>
     <row r="28">
@@ -293,7 +293,7 @@
         <v>34078.0</v>
       </c>
       <c r="B28" t="n">
-        <v>18.56101614120743</v>
+        <v>8.964842522133605</v>
       </c>
     </row>
     <row r="29">
@@ -301,7 +301,7 @@
         <v>34082.0</v>
       </c>
       <c r="B29" t="n">
-        <v>33.35454374349797</v>
+        <v>9.761328037279045</v>
       </c>
     </row>
     <row r="30">
@@ -309,7 +309,7 @@
         <v>34086.0</v>
       </c>
       <c r="B30" t="n">
-        <v>22.674094682247944</v>
+        <v>19.063017671676267</v>
       </c>
     </row>
     <row r="31">
@@ -317,7 +317,7 @@
         <v>34090.0</v>
       </c>
       <c r="B31" t="n">
-        <v>17.872057020150585</v>
+        <v>20.738402144783826</v>
       </c>
     </row>
     <row r="32">
@@ -325,7 +325,7 @@
         <v>34094.0</v>
       </c>
       <c r="B32" t="n">
-        <v>19.75954541287789</v>
+        <v>23.438844598899244</v>
       </c>
     </row>
     <row r="33">
@@ -333,7 +333,7 @@
         <v>34098.0</v>
       </c>
       <c r="B33" t="n">
-        <v>64.21674885013842</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="34">
@@ -341,7 +341,7 @@
         <v>34102.0</v>
       </c>
       <c r="B34" t="n">
-        <v>36.8423363444834</v>
+        <v>13.744354225399002</v>
       </c>
     </row>
     <row r="35">
@@ -349,7 +349,7 @@
         <v>34111.0</v>
       </c>
       <c r="B35" t="n">
-        <v>26.37372699408027</v>
+        <v>31.10452237040532</v>
       </c>
     </row>
     <row r="36">
@@ -357,7 +357,7 @@
         <v>34115.0</v>
       </c>
       <c r="B36" t="n">
-        <v>26.90856641354801</v>
+        <v>15.39675511482893</v>
       </c>
     </row>
     <row r="37">
@@ -365,7 +365,7 @@
         <v>34119.0</v>
       </c>
       <c r="B37" t="n">
-        <v>20.777561883319184</v>
+        <v>21.52392315331344</v>
       </c>
     </row>
     <row r="38">
@@ -373,7 +373,7 @@
         <v>34126.0</v>
       </c>
       <c r="B38" t="n">
-        <v>16.592413107652824</v>
+        <v>23.821306531723742</v>
       </c>
     </row>
     <row r="39">
@@ -381,7 +381,7 @@
         <v>34130.0</v>
       </c>
       <c r="B39" t="n">
-        <v>20.589407098814057</v>
+        <v>18.177280045737668</v>
       </c>
     </row>
     <row r="40">
@@ -389,7 +389,7 @@
         <v>34134.0</v>
       </c>
       <c r="B40" t="n">
-        <v>21.860627039002026</v>
+        <v>10.124712889168546</v>
       </c>
     </row>
     <row r="41">
@@ -397,7 +397,7 @@
         <v>34138.0</v>
       </c>
       <c r="B41" t="n">
-        <v>15.379779025779687</v>
+        <v>11.833744067264785</v>
       </c>
     </row>
     <row r="42">
@@ -405,7 +405,7 @@
         <v>34142.0</v>
       </c>
       <c r="B42" t="n">
-        <v>14.137258574218128</v>
+        <v>11.786422674304891</v>
       </c>
     </row>
     <row r="43">
@@ -413,7 +413,7 @@
         <v>34146.0</v>
       </c>
       <c r="B43" t="n">
-        <v>12.942232082926976</v>
+        <v>14.11170555247547</v>
       </c>
     </row>
     <row r="44">
@@ -421,7 +421,7 @@
         <v>34150.0</v>
       </c>
       <c r="B44" t="n">
-        <v>12.75563253321766</v>
+        <v>13.604577631557198</v>
       </c>
     </row>
     <row r="45">
@@ -429,7 +429,7 @@
         <v>34154.0</v>
       </c>
       <c r="B45" t="n">
-        <v>11.72905930715282</v>
+        <v>19.790437864163138</v>
       </c>
     </row>
     <row r="46">
@@ -437,7 +437,7 @@
         <v>34158.0</v>
       </c>
       <c r="B46" t="n">
-        <v>5.578614923758385</v>
+        <v>26.85488113545877</v>
       </c>
     </row>
     <row r="47">
@@ -445,7 +445,7 @@
         <v>34162.0</v>
       </c>
       <c r="B47" t="n">
-        <v>14.689383688088933</v>
+        <v>28.204874235130124</v>
       </c>
     </row>
     <row r="48">
@@ -453,7 +453,7 @@
         <v>34166.0</v>
       </c>
       <c r="B48" t="n">
-        <v>11.260109249346353</v>
+        <v>16.97529421513607</v>
       </c>
     </row>
     <row r="49">
@@ -469,7 +469,7 @@
         <v>34176.0</v>
       </c>
       <c r="B50" t="n">
-        <v>10.64131435680736</v>
+        <v>24.911336503893814</v>
       </c>
     </row>
     <row r="51">
@@ -477,7 +477,7 @@
         <v>34180.0</v>
       </c>
       <c r="B51" t="n">
-        <v>58.75039939796644</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="52">
@@ -485,7 +485,7 @@
         <v>34184.0</v>
       </c>
       <c r="B52" t="n">
-        <v>28.861120799410113</v>
+        <v>11.923094571749598</v>
       </c>
     </row>
     <row r="53">
@@ -493,7 +493,7 @@
         <v>34190.0</v>
       </c>
       <c r="B53" t="n">
-        <v>19.457587489916843</v>
+        <v>10.468251622441176</v>
       </c>
     </row>
     <row r="54">
@@ -501,7 +501,7 @@
         <v>34197.0</v>
       </c>
       <c r="B54" t="n">
-        <v>15.16732851123507</v>
+        <v>13.220964641521858</v>
       </c>
     </row>
     <row r="55">
@@ -509,7 +509,7 @@
         <v>34201.0</v>
       </c>
       <c r="B55" t="n">
-        <v>13.968804330032965</v>
+        <v>12.004289630915238</v>
       </c>
     </row>
     <row r="56">
@@ -517,7 +517,7 @@
         <v>34205.0</v>
       </c>
       <c r="B56" t="n">
-        <v>12.985880597188856</v>
+        <v>12.14678392841928</v>
       </c>
     </row>
     <row r="57">
@@ -525,7 +525,7 @@
         <v>34209.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.13328169244002097</v>
+        <v>38.72355603851167</v>
       </c>
     </row>
     <row r="58">
@@ -533,7 +533,7 @@
         <v>34213.0</v>
       </c>
       <c r="B58" t="n">
-        <v>6.048775751188298</v>
+        <v>25.69295747724204</v>
       </c>
     </row>
     <row r="59">
@@ -541,7 +541,7 @@
         <v>34217.0</v>
       </c>
       <c r="B59" t="n">
-        <v>35.29171808566768</v>
+        <v>77.06952603583743</v>
       </c>
     </row>
     <row r="60">
@@ -549,7 +549,7 @@
         <v>34221.0</v>
       </c>
       <c r="B60" t="n">
-        <v>95.6578263531068</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="61">
@@ -557,7 +557,7 @@
         <v>34225.0</v>
       </c>
       <c r="B61" t="n">
-        <v>30.793903055046812</v>
+        <v>22.75496893900736</v>
       </c>
     </row>
     <row r="62">
@@ -573,7 +573,7 @@
         <v>34236.0</v>
       </c>
       <c r="B63" t="n">
-        <v>4.726055432655106</v>
+        <v>51.402243265603445</v>
       </c>
     </row>
     <row r="64">
@@ -581,7 +581,7 @@
         <v>34240.0</v>
       </c>
       <c r="B64" t="n">
-        <v>79.64560441908183</v>
+        <v>42.40101621751139</v>
       </c>
     </row>
     <row r="65">
@@ -589,7 +589,7 @@
         <v>34244.0</v>
       </c>
       <c r="B65" t="n">
-        <v>106.04018488026912</v>
+        <v>22.170584738667454</v>
       </c>
     </row>
     <row r="66">
@@ -597,7 +597,7 @@
         <v>34248.0</v>
       </c>
       <c r="B66" t="n">
-        <v>66.10997258125819</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="67">
@@ -605,7 +605,7 @@
         <v>34253.0</v>
       </c>
       <c r="B67" t="n">
-        <v>31.13881765628594</v>
+        <v>15.078335463710214</v>
       </c>
     </row>
     <row r="68">
@@ -613,7 +613,7 @@
         <v>34257.0</v>
       </c>
       <c r="B68" t="n">
-        <v>24.739415227421492</v>
+        <v>17.357358537577028</v>
       </c>
     </row>
     <row r="69">
@@ -621,7 +621,7 @@
         <v>34261.0</v>
       </c>
       <c r="B69" t="n">
-        <v>21.875634664433388</v>
+        <v>17.46649789122577</v>
       </c>
     </row>
     <row r="70">
@@ -629,7 +629,7 @@
         <v>34265.0</v>
       </c>
       <c r="B70" t="n">
-        <v>19.424162855513252</v>
+        <v>17.36204878305509</v>
       </c>
     </row>
     <row r="71">
@@ -637,7 +637,7 @@
         <v>34269.0</v>
       </c>
       <c r="B71" t="n">
-        <v>18.461520955111254</v>
+        <v>17.8319589604106</v>
       </c>
     </row>
     <row r="72">
@@ -645,7 +645,7 @@
         <v>34273.0</v>
       </c>
       <c r="B72" t="n">
-        <v>16.21912096758153</v>
+        <v>22.864529305712562</v>
       </c>
     </row>
     <row r="73">
@@ -653,7 +653,7 @@
         <v>34277.0</v>
       </c>
       <c r="B73" t="n">
-        <v>10.31989094823292</v>
+        <v>28.394883966751067</v>
       </c>
     </row>
     <row r="74">
@@ -669,7 +669,7 @@
         <v>34285.0</v>
       </c>
       <c r="B75" t="n">
-        <v>30.227457092031404</v>
+        <v>14.888608897557116</v>
       </c>
     </row>
     <row r="76">
@@ -677,7 +677,7 @@
         <v>34289.0</v>
       </c>
       <c r="B76" t="n">
-        <v>21.02683862286941</v>
+        <v>28.556340471725402</v>
       </c>
     </row>
     <row r="77">
@@ -685,7 +685,7 @@
         <v>34293.0</v>
       </c>
       <c r="B77" t="n">
-        <v>3.7499999999999982</v>
+        <v>71.41030744237577</v>
       </c>
     </row>
     <row r="78">
@@ -693,7 +693,7 @@
         <v>34297.0</v>
       </c>
       <c r="B78" t="n">
-        <v>11.701025155168216</v>
+        <v>59.17833462748239</v>
       </c>
     </row>
     <row r="79">
@@ -701,7 +701,7 @@
         <v>34301.0</v>
       </c>
       <c r="B79" t="n">
-        <v>51.885919929830294</v>
+        <v>178.2986126723443</v>
       </c>
     </row>
     <row r="80">
@@ -709,7 +709,7 @@
         <v>34305.0</v>
       </c>
       <c r="B80" t="n">
-        <v>36.67360090727138</v>
+        <v>141.88220154843003</v>
       </c>
     </row>
     <row r="81">
@@ -717,7 +717,7 @@
         <v>34309.0</v>
       </c>
       <c r="B81" t="n">
-        <v>64.25085448228077</v>
+        <v>119.18373364758304</v>
       </c>
     </row>
     <row r="82">
@@ -725,7 +725,7 @@
         <v>34313.0</v>
       </c>
       <c r="B82" t="n">
-        <v>161.0539227149376</v>
+        <v>121.18119352487261</v>
       </c>
     </row>
     <row r="83">
@@ -733,7 +733,7 @@
         <v>34317.0</v>
       </c>
       <c r="B83" t="n">
-        <v>149.65290136113364</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="84">
@@ -741,7 +741,7 @@
         <v>34321.0</v>
       </c>
       <c r="B84" t="n">
-        <v>102.75823508836378</v>
+        <v>128.48703873149412</v>
       </c>
     </row>
     <row r="85">
@@ -749,7 +749,7 @@
         <v>34326.0</v>
       </c>
       <c r="B85" t="n">
-        <v>30.240569935759652</v>
+        <v>5.854235807255803</v>
       </c>
     </row>
     <row r="86">
@@ -757,7 +757,7 @@
         <v>34330.0</v>
       </c>
       <c r="B86" t="n">
-        <v>112.90223608433779</v>
+        <v>73.69644626954302</v>
       </c>
     </row>
     <row r="87">
@@ -765,7 +765,7 @@
         <v>34334.0</v>
       </c>
       <c r="B87" t="n">
-        <v>171.03553070744647</v>
+        <v>170.70162769272778</v>
       </c>
     </row>
     <row r="88">
@@ -773,7 +773,7 @@
         <v>34338.0</v>
       </c>
       <c r="B88" t="n">
-        <v>65.9881369069135</v>
+        <v>59.16156181527633</v>
       </c>
     </row>
     <row r="89">
@@ -781,7 +781,7 @@
         <v>34342.0</v>
       </c>
       <c r="B89" t="n">
-        <v>168.22723476574575</v>
+        <v>100.43838125060218</v>
       </c>
     </row>
     <row r="90">
@@ -789,7 +789,7 @@
         <v>34346.0</v>
       </c>
       <c r="B90" t="n">
-        <v>68.03184819493598</v>
+        <v>104.5726779878149</v>
       </c>
     </row>
     <row r="91">
@@ -797,7 +797,7 @@
         <v>34350.0</v>
       </c>
       <c r="B91" t="n">
-        <v>17.110269571304052</v>
+        <v>111.50481712225825</v>
       </c>
     </row>
     <row r="92">
@@ -805,7 +805,7 @@
         <v>34354.0</v>
       </c>
       <c r="B92" t="n">
-        <v>68.0592182647414</v>
+        <v>100.27525546854594</v>
       </c>
     </row>
     <row r="93">
@@ -813,7 +813,7 @@
         <v>34358.0</v>
       </c>
       <c r="B93" t="n">
-        <v>141.28653939156</v>
+        <v>82.55355725534838</v>
       </c>
     </row>
     <row r="94">
@@ -821,7 +821,7 @@
         <v>34362.0</v>
       </c>
       <c r="B94" t="n">
-        <v>105.60255620764728</v>
+        <v>28.41630430623258</v>
       </c>
     </row>
     <row r="95">
@@ -829,7 +829,7 @@
         <v>34366.0</v>
       </c>
       <c r="B95" t="n">
-        <v>75.76927772074917</v>
+        <v>14.100956472162824</v>
       </c>
     </row>
     <row r="96">
@@ -837,7 +837,7 @@
         <v>34370.0</v>
       </c>
       <c r="B96" t="n">
-        <v>43.651232851015145</v>
+        <v>21.80131653364991</v>
       </c>
     </row>
     <row r="97">
@@ -845,7 +845,7 @@
         <v>34374.0</v>
       </c>
       <c r="B97" t="n">
-        <v>32.42129409776603</v>
+        <v>19.968683506050454</v>
       </c>
     </row>
     <row r="98">
@@ -853,7 +853,7 @@
         <v>34378.0</v>
       </c>
       <c r="B98" t="n">
-        <v>13.497111518173622</v>
+        <v>68.48285214494382</v>
       </c>
     </row>
     <row r="99">
@@ -861,7 +861,7 @@
         <v>34382.0</v>
       </c>
       <c r="B99" t="n">
-        <v>322.3156116410706</v>
+        <v>319.3186973145094</v>
       </c>
     </row>
     <row r="100">
@@ -869,7 +869,7 @@
         <v>34386.0</v>
       </c>
       <c r="B100" t="n">
-        <v>39.244087797020704</v>
+        <v>68.80684833699976</v>
       </c>
     </row>
     <row r="101">
@@ -877,7 +877,7 @@
         <v>34390.0</v>
       </c>
       <c r="B101" t="n">
-        <v>108.75261917556514</v>
+        <v>10.127642096201903</v>
       </c>
     </row>
     <row r="102">
@@ -885,7 +885,7 @@
         <v>34395.0</v>
       </c>
       <c r="B102" t="n">
-        <v>110.87348084943514</v>
+        <v>115.91092656926011</v>
       </c>
     </row>
     <row r="103">
@@ -893,7 +893,7 @@
         <v>34399.0</v>
       </c>
       <c r="B103" t="n">
-        <v>50.71656613342915</v>
+        <v>49.47390406783641</v>
       </c>
     </row>
     <row r="104">
@@ -901,7 +901,7 @@
         <v>34403.0</v>
       </c>
       <c r="B104" t="n">
-        <v>76.23932907679531</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="105">
@@ -909,7 +909,7 @@
         <v>34407.0</v>
       </c>
       <c r="B105" t="n">
-        <v>49.1198117893169</v>
+        <v>79.00410926850667</v>
       </c>
     </row>
     <row r="106">
@@ -917,7 +917,7 @@
         <v>34411.0</v>
       </c>
       <c r="B106" t="n">
-        <v>86.63990602515528</v>
+        <v>5.346058542137895</v>
       </c>
     </row>
     <row r="107">
@@ -925,7 +925,7 @@
         <v>34415.0</v>
       </c>
       <c r="B107" t="n">
-        <v>59.648752079211164</v>
+        <v>69.84831857439697</v>
       </c>
     </row>
     <row r="108">
@@ -933,7 +933,7 @@
         <v>34420.0</v>
       </c>
       <c r="B108" t="n">
-        <v>125.58408921107997</v>
+        <v>108.64198267763095</v>
       </c>
     </row>
     <row r="109">
@@ -941,7 +941,7 @@
         <v>34424.0</v>
       </c>
       <c r="B109" t="n">
-        <v>68.7464906551159</v>
+        <v>56.007556039050414</v>
       </c>
     </row>
     <row r="110">
@@ -949,7 +949,7 @@
         <v>34428.0</v>
       </c>
       <c r="B110" t="n">
-        <v>77.66512752924224</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="111">
@@ -957,7 +957,7 @@
         <v>34432.0</v>
       </c>
       <c r="B111" t="n">
-        <v>36.058987170215744</v>
+        <v>19.334129451249286</v>
       </c>
     </row>
     <row r="112">
@@ -965,7 +965,7 @@
         <v>34436.0</v>
       </c>
       <c r="B112" t="n">
-        <v>26.551655597632646</v>
+        <v>41.536945047642575</v>
       </c>
     </row>
     <row r="113">
@@ -973,7 +973,7 @@
         <v>34440.0</v>
       </c>
       <c r="B113" t="n">
-        <v>17.190129928101776</v>
+        <v>39.05802102612375</v>
       </c>
     </row>
     <row r="114">
@@ -981,7 +981,7 @@
         <v>34444.0</v>
       </c>
       <c r="B114" t="n">
-        <v>38.74003050681332</v>
+        <v>19.589741121799086</v>
       </c>
     </row>
     <row r="115">
@@ -989,7 +989,7 @@
         <v>34448.0</v>
       </c>
       <c r="B115" t="n">
-        <v>35.52039777421447</v>
+        <v>11.834882909075565</v>
       </c>
     </row>
     <row r="116">
@@ -1005,7 +1005,7 @@
         <v>34456.0</v>
       </c>
       <c r="B117" t="n">
-        <v>23.1483318478976</v>
+        <v>13.495827597797698</v>
       </c>
     </row>
     <row r="118">
@@ -1013,7 +1013,7 @@
         <v>34460.0</v>
       </c>
       <c r="B118" t="n">
-        <v>17.69997801268021</v>
+        <v>16.533833303448354</v>
       </c>
     </row>
     <row r="119">
@@ -1021,7 +1021,7 @@
         <v>34464.0</v>
       </c>
       <c r="B119" t="n">
-        <v>19.235612883655488</v>
+        <v>15.960093015214849</v>
       </c>
     </row>
     <row r="120">
@@ -1029,7 +1029,7 @@
         <v>34468.0</v>
       </c>
       <c r="B120" t="n">
-        <v>16.89865355626606</v>
+        <v>16.215879200227132</v>
       </c>
     </row>
     <row r="121">
@@ -1037,7 +1037,7 @@
         <v>34472.0</v>
       </c>
       <c r="B121" t="n">
-        <v>20.041966859615755</v>
+        <v>9.845931527884533</v>
       </c>
     </row>
     <row r="122">
@@ -1045,7 +1045,7 @@
         <v>34476.0</v>
       </c>
       <c r="B122" t="n">
-        <v>16.14410028830198</v>
+        <v>15.301312206819132</v>
       </c>
     </row>
     <row r="123">
@@ -1053,7 +1053,7 @@
         <v>34480.0</v>
       </c>
       <c r="B123" t="n">
-        <v>14.720453194426279</v>
+        <v>15.408058470561773</v>
       </c>
     </row>
     <row r="124">
@@ -1061,7 +1061,7 @@
         <v>34484.0</v>
       </c>
       <c r="B124" t="n">
-        <v>15.850712549091359</v>
+        <v>13.48603356513306</v>
       </c>
     </row>
     <row r="125">
@@ -1069,7 +1069,7 @@
         <v>34488.0</v>
       </c>
       <c r="B125" t="n">
-        <v>14.297516151425917</v>
+        <v>10.858188644396986</v>
       </c>
     </row>
     <row r="126">
@@ -1077,7 +1077,7 @@
         <v>34492.0</v>
       </c>
       <c r="B126" t="n">
-        <v>12.884482033110048</v>
+        <v>14.471790915729589</v>
       </c>
     </row>
     <row r="127">
@@ -1085,7 +1085,7 @@
         <v>34496.0</v>
       </c>
       <c r="B127" t="n">
-        <v>11.633154444702292</v>
+        <v>14.110126286053376</v>
       </c>
     </row>
     <row r="128">
@@ -1093,7 +1093,7 @@
         <v>34500.0</v>
       </c>
       <c r="B128" t="n">
-        <v>14.443863146508518</v>
+        <v>15.875693210347386</v>
       </c>
     </row>
     <row r="129">
@@ -1101,7 +1101,7 @@
         <v>34504.0</v>
       </c>
       <c r="B129" t="n">
-        <v>14.15119841917134</v>
+        <v>11.746272405062777</v>
       </c>
     </row>
     <row r="130">
@@ -1109,7 +1109,7 @@
         <v>34508.0</v>
       </c>
       <c r="B130" t="n">
-        <v>14.336162470620396</v>
+        <v>9.42772864119177</v>
       </c>
     </row>
     <row r="131">
@@ -1117,7 +1117,7 @@
         <v>34512.0</v>
       </c>
       <c r="B131" t="n">
-        <v>11.678821434917802</v>
+        <v>10.920062225816107</v>
       </c>
     </row>
     <row r="132">
@@ -1125,7 +1125,7 @@
         <v>34516.0</v>
       </c>
       <c r="B132" t="n">
-        <v>11.663750632184549</v>
+        <v>10.425657385314254</v>
       </c>
     </row>
     <row r="133">
@@ -1133,7 +1133,7 @@
         <v>34520.0</v>
       </c>
       <c r="B133" t="n">
-        <v>11.102949437344426</v>
+        <v>10.011002401679303</v>
       </c>
     </row>
     <row r="134">
@@ -1141,7 +1141,7 @@
         <v>34524.0</v>
       </c>
       <c r="B134" t="n">
-        <v>10.607822879571813</v>
+        <v>9.422561206733866</v>
       </c>
     </row>
     <row r="135">
@@ -1149,7 +1149,7 @@
         <v>34528.0</v>
       </c>
       <c r="B135" t="n">
-        <v>10.303070671493836</v>
+        <v>11.14608483597937</v>
       </c>
     </row>
     <row r="136">
@@ -1157,7 +1157,7 @@
         <v>34532.0</v>
       </c>
       <c r="B136" t="n">
-        <v>8.888969012984568</v>
+        <v>9.972797326399688</v>
       </c>
     </row>
     <row r="137">
@@ -1165,7 +1165,7 @@
         <v>34536.0</v>
       </c>
       <c r="B137" t="n">
-        <v>11.468071550878062</v>
+        <v>10.94156102913359</v>
       </c>
     </row>
     <row r="138">
@@ -1173,7 +1173,7 @@
         <v>34540.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10.169648215118059</v>
+        <v>11.339764104400608</v>
       </c>
     </row>
     <row r="139">
@@ -1181,7 +1181,7 @@
         <v>34544.0</v>
       </c>
       <c r="B139" t="n">
-        <v>11.051586992801777</v>
+        <v>11.057469117554511</v>
       </c>
     </row>
     <row r="140">
@@ -1189,7 +1189,7 @@
         <v>34548.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11.468228939186051</v>
+        <v>9.171076201065334</v>
       </c>
     </row>
     <row r="141">
@@ -1197,7 +1197,7 @@
         <v>34552.0</v>
       </c>
       <c r="B141" t="n">
-        <v>9.783004716853824</v>
+        <v>13.09125385769639</v>
       </c>
     </row>
     <row r="142">
@@ -1205,7 +1205,7 @@
         <v>34556.0</v>
       </c>
       <c r="B142" t="n">
-        <v>10.0960888920858</v>
+        <v>10.15770114512989</v>
       </c>
     </row>
     <row r="143">
@@ -1213,7 +1213,7 @@
         <v>34560.0</v>
       </c>
       <c r="B143" t="n">
-        <v>13.586548249542078</v>
+        <v>17.98075932348688</v>
       </c>
     </row>
     <row r="144">
@@ -1221,7 +1221,7 @@
         <v>34564.0</v>
       </c>
       <c r="B144" t="n">
-        <v>7.70747109676425</v>
+        <v>13.895628518437876</v>
       </c>
     </row>
     <row r="145">
@@ -1229,7 +1229,7 @@
         <v>34568.0</v>
       </c>
       <c r="B145" t="n">
-        <v>16.965134160141602</v>
+        <v>11.708267413907638</v>
       </c>
     </row>
     <row r="146">
@@ -1237,7 +1237,7 @@
         <v>34572.0</v>
       </c>
       <c r="B146" t="n">
-        <v>22.417572729079765</v>
+        <v>10.072994145990936</v>
       </c>
     </row>
     <row r="147">
@@ -1253,7 +1253,7 @@
         <v>34580.0</v>
       </c>
       <c r="B148" t="n">
-        <v>4.63377396452231</v>
+        <v>50.77393518428668</v>
       </c>
     </row>
     <row r="149">
@@ -1261,7 +1261,7 @@
         <v>34584.0</v>
       </c>
       <c r="B149" t="n">
-        <v>51.03417921453945</v>
+        <v>18.41512821546262</v>
       </c>
     </row>
     <row r="150">
@@ -1269,7 +1269,7 @@
         <v>34588.0</v>
       </c>
       <c r="B150" t="n">
-        <v>37.91132479449909</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="151">
@@ -1277,7 +1277,7 @@
         <v>34592.0</v>
       </c>
       <c r="B151" t="n">
-        <v>22.95392880573463</v>
+        <v>21.082237291171086</v>
       </c>
     </row>
     <row r="152">
@@ -1285,7 +1285,7 @@
         <v>34596.0</v>
       </c>
       <c r="B152" t="n">
-        <v>1.6500779032009791</v>
+        <v>5.393306540573413</v>
       </c>
     </row>
     <row r="153">
@@ -1293,7 +1293,7 @@
         <v>34600.0</v>
       </c>
       <c r="B153" t="n">
-        <v>20.609165509387807</v>
+        <v>21.839844732116006</v>
       </c>
     </row>
     <row r="154">
@@ -1301,7 +1301,7 @@
         <v>34604.0</v>
       </c>
       <c r="B154" t="n">
-        <v>7.0011087076823495</v>
+        <v>4.539378497895933</v>
       </c>
     </row>
     <row r="155">
@@ -1309,7 +1309,7 @@
         <v>34608.0</v>
       </c>
       <c r="B155" t="n">
-        <v>18.68689609992489</v>
+        <v>9.928235920784068</v>
       </c>
     </row>
     <row r="156">
@@ -1317,7 +1317,7 @@
         <v>34612.0</v>
       </c>
       <c r="B156" t="n">
-        <v>14.665398028180315</v>
+        <v>12.591594254586184</v>
       </c>
     </row>
     <row r="157">
@@ -1325,7 +1325,7 @@
         <v>34616.0</v>
       </c>
       <c r="B157" t="n">
-        <v>6.078328729917142</v>
+        <v>30.225024458229203</v>
       </c>
     </row>
     <row r="158">
@@ -1333,7 +1333,7 @@
         <v>34620.0</v>
       </c>
       <c r="B158" t="n">
-        <v>3.7499999999999982</v>
+        <v>44.671058511849274</v>
       </c>
     </row>
     <row r="159">
@@ -1341,7 +1341,7 @@
         <v>34624.0</v>
       </c>
       <c r="B159" t="n">
-        <v>16.908052374293316</v>
+        <v>16.263517178895643</v>
       </c>
     </row>
     <row r="160">
@@ -1349,7 +1349,7 @@
         <v>34628.0</v>
       </c>
       <c r="B160" t="n">
-        <v>48.992824239969046</v>
+        <v>29.009428989871594</v>
       </c>
     </row>
     <row r="161">
@@ -1357,7 +1357,7 @@
         <v>34632.0</v>
       </c>
       <c r="B161" t="n">
-        <v>39.224847986446996</v>
+        <v>46.96734491406314</v>
       </c>
     </row>
     <row r="162">
@@ -1365,7 +1365,7 @@
         <v>34636.0</v>
       </c>
       <c r="B162" t="n">
-        <v>9.528827072558695</v>
+        <v>31.237695391898907</v>
       </c>
     </row>
     <row r="163">
@@ -1373,7 +1373,7 @@
         <v>34640.0</v>
       </c>
       <c r="B163" t="n">
-        <v>39.34321636525486</v>
+        <v>115.56929103789649</v>
       </c>
     </row>
     <row r="164">
@@ -1381,7 +1381,7 @@
         <v>34644.0</v>
       </c>
       <c r="B164" t="n">
-        <v>36.77979819383227</v>
+        <v>110.90733754763197</v>
       </c>
     </row>
     <row r="165">
@@ -1389,7 +1389,7 @@
         <v>34648.0</v>
       </c>
       <c r="B165" t="n">
-        <v>74.5236612145373</v>
+        <v>30.31746865438799</v>
       </c>
     </row>
     <row r="166">
@@ -1397,7 +1397,7 @@
         <v>34654.0</v>
       </c>
       <c r="B166" t="n">
-        <v>42.226430229498014</v>
+        <v>13.134217205903429</v>
       </c>
     </row>
     <row r="167">
@@ -1405,7 +1405,7 @@
         <v>34659.0</v>
       </c>
       <c r="B167" t="n">
-        <v>20.8818239458004</v>
+        <v>74.964136463261</v>
       </c>
     </row>
     <row r="168">
@@ -1413,7 +1413,7 @@
         <v>34663.0</v>
       </c>
       <c r="B168" t="n">
-        <v>3.7499999999999982</v>
+        <v>131.51207106663955</v>
       </c>
     </row>
     <row r="169">
@@ -1421,7 +1421,7 @@
         <v>34667.0</v>
       </c>
       <c r="B169" t="n">
-        <v>51.73332587642346</v>
+        <v>98.93642350199336</v>
       </c>
     </row>
     <row r="170">
@@ -1429,7 +1429,7 @@
         <v>34671.0</v>
       </c>
       <c r="B170" t="n">
-        <v>143.28215354966355</v>
+        <v>41.05039015332881</v>
       </c>
     </row>
     <row r="171">
@@ -1437,7 +1437,7 @@
         <v>34675.0</v>
       </c>
       <c r="B171" t="n">
-        <v>136.62019152751796</v>
+        <v>59.83180762558535</v>
       </c>
     </row>
     <row r="172">
@@ -1445,7 +1445,7 @@
         <v>34679.0</v>
       </c>
       <c r="B172" t="n">
-        <v>75.50968643920038</v>
+        <v>32.348428712567895</v>
       </c>
     </row>
     <row r="173">
@@ -1453,7 +1453,7 @@
         <v>34683.0</v>
       </c>
       <c r="B173" t="n">
-        <v>53.29941219602789</v>
+        <v>178.47562937501527</v>
       </c>
     </row>
     <row r="174">
@@ -1461,7 +1461,7 @@
         <v>34687.0</v>
       </c>
       <c r="B174" t="n">
-        <v>3.7499999999999982</v>
+        <v>134.80813830210357</v>
       </c>
     </row>
     <row r="175">
@@ -1469,7 +1469,7 @@
         <v>34691.0</v>
       </c>
       <c r="B175" t="n">
-        <v>187.07995347415323</v>
+        <v>87.43650693706785</v>
       </c>
     </row>
     <row r="176">
@@ -1477,7 +1477,7 @@
         <v>34695.0</v>
       </c>
       <c r="B176" t="n">
-        <v>30.423641778538396</v>
+        <v>69.27089966357045</v>
       </c>
     </row>
     <row r="177">
@@ -1493,7 +1493,7 @@
         <v>34705.0</v>
       </c>
       <c r="B178" t="n">
-        <v>106.41061931278942</v>
+        <v>53.13465219388887</v>
       </c>
     </row>
     <row r="179">
@@ -1501,7 +1501,7 @@
         <v>34709.0</v>
       </c>
       <c r="B179" t="n">
-        <v>48.8680209266814</v>
+        <v>112.29345169194843</v>
       </c>
     </row>
     <row r="180">
@@ -1509,7 +1509,7 @@
         <v>34713.0</v>
       </c>
       <c r="B180" t="n">
-        <v>75.88959309622481</v>
+        <v>102.92024872435107</v>
       </c>
     </row>
     <row r="181">
@@ -1517,7 +1517,7 @@
         <v>34717.0</v>
       </c>
       <c r="B181" t="n">
-        <v>147.2323222838195</v>
+        <v>226.99060594314494</v>
       </c>
     </row>
     <row r="182">
@@ -1525,7 +1525,7 @@
         <v>34721.0</v>
       </c>
       <c r="B182" t="n">
-        <v>43.6575573568696</v>
+        <v>143.6300125843243</v>
       </c>
     </row>
     <row r="183">
@@ -1533,7 +1533,7 @@
         <v>34725.0</v>
       </c>
       <c r="B183" t="n">
-        <v>178.55609914858923</v>
+        <v>11.912304484528365</v>
       </c>
     </row>
     <row r="184">
@@ -1541,7 +1541,7 @@
         <v>34730.0</v>
       </c>
       <c r="B184" t="n">
-        <v>37.58267922094683</v>
+        <v>171.5735035712984</v>
       </c>
     </row>
     <row r="185">
@@ -1549,7 +1549,7 @@
         <v>34736.0</v>
       </c>
       <c r="B185" t="n">
-        <v>92.74128679799831</v>
+        <v>145.83117516391033</v>
       </c>
     </row>
     <row r="186">
@@ -1557,7 +1557,7 @@
         <v>34740.0</v>
       </c>
       <c r="B186" t="n">
-        <v>194.64952087765832</v>
+        <v>155.61348767802224</v>
       </c>
     </row>
     <row r="187">
@@ -1565,7 +1565,7 @@
         <v>34744.0</v>
       </c>
       <c r="B187" t="n">
-        <v>169.81201564217145</v>
+        <v>120.349354826327</v>
       </c>
     </row>
     <row r="188">
@@ -1573,7 +1573,7 @@
         <v>34748.0</v>
       </c>
       <c r="B188" t="n">
-        <v>164.74548277283446</v>
+        <v>71.2795343964599</v>
       </c>
     </row>
     <row r="189">
@@ -1581,7 +1581,7 @@
         <v>34752.0</v>
       </c>
       <c r="B189" t="n">
-        <v>62.954419037118775</v>
+        <v>70.482595197171</v>
       </c>
     </row>
     <row r="190">
@@ -1589,7 +1589,7 @@
         <v>34757.0</v>
       </c>
       <c r="B190" t="n">
-        <v>47.52999059009205</v>
+        <v>95.12504636711009</v>
       </c>
     </row>
     <row r="191">
@@ -1597,7 +1597,7 @@
         <v>34761.0</v>
       </c>
       <c r="B191" t="n">
-        <v>57.275295569939054</v>
+        <v>45.45383233730116</v>
       </c>
     </row>
     <row r="192">
@@ -1605,7 +1605,7 @@
         <v>34765.0</v>
       </c>
       <c r="B192" t="n">
-        <v>75.77226762542405</v>
+        <v>15.576874080866641</v>
       </c>
     </row>
     <row r="193">
@@ -1613,7 +1613,7 @@
         <v>34769.0</v>
       </c>
       <c r="B193" t="n">
-        <v>41.84808172859106</v>
+        <v>8.299945843604133</v>
       </c>
     </row>
     <row r="194">
@@ -1621,7 +1621,7 @@
         <v>34773.0</v>
       </c>
       <c r="B194" t="n">
-        <v>41.99605562205379</v>
+        <v>24.429599336409336</v>
       </c>
     </row>
     <row r="195">
@@ -1629,7 +1629,7 @@
         <v>34777.0</v>
       </c>
       <c r="B195" t="n">
-        <v>44.178185349529414</v>
+        <v>7.654073299928614</v>
       </c>
     </row>
     <row r="196">
@@ -1653,7 +1653,7 @@
         <v>34789.0</v>
       </c>
       <c r="B198" t="n">
-        <v>24.98474869984014</v>
+        <v>22.377936894763653</v>
       </c>
     </row>
     <row r="199">
@@ -1661,7 +1661,7 @@
         <v>34793.0</v>
       </c>
       <c r="B199" t="n">
-        <v>22.292815489825724</v>
+        <v>24.484072786390495</v>
       </c>
     </row>
     <row r="200">
@@ -1669,7 +1669,7 @@
         <v>34797.0</v>
       </c>
       <c r="B200" t="n">
-        <v>17.469593654020425</v>
+        <v>22.943162882519296</v>
       </c>
     </row>
     <row r="201">
@@ -1693,7 +1693,7 @@
         <v>34809.0</v>
       </c>
       <c r="B203" t="n">
-        <v>21.068311215364123</v>
+        <v>24.416472510853396</v>
       </c>
     </row>
     <row r="204">
@@ -1701,7 +1701,7 @@
         <v>34813.0</v>
       </c>
       <c r="B204" t="n">
-        <v>15.051069636486641</v>
+        <v>23.041504412192236</v>
       </c>
     </row>
     <row r="205">
@@ -1709,7 +1709,7 @@
         <v>34817.0</v>
       </c>
       <c r="B205" t="n">
-        <v>10.61049656410086</v>
+        <v>21.284321504340134</v>
       </c>
     </row>
     <row r="206">
@@ -1733,7 +1733,7 @@
         <v>34829.0</v>
       </c>
       <c r="B208" t="n">
-        <v>9.64974098399396</v>
+        <v>20.697466170053566</v>
       </c>
     </row>
     <row r="209">
@@ -1741,7 +1741,7 @@
         <v>34833.0</v>
       </c>
       <c r="B209" t="n">
-        <v>11.970798507109821</v>
+        <v>21.857191879339393</v>
       </c>
     </row>
     <row r="210">
@@ -1749,7 +1749,7 @@
         <v>34837.0</v>
       </c>
       <c r="B210" t="n">
-        <v>9.096074183840258</v>
+        <v>20.057710377017667</v>
       </c>
     </row>
     <row r="211">
@@ -1773,7 +1773,7 @@
         <v>34849.0</v>
       </c>
       <c r="B213" t="n">
-        <v>13.57632180068569</v>
+        <v>22.720463325991147</v>
       </c>
     </row>
     <row r="214">
@@ -1781,7 +1781,7 @@
         <v>34853.0</v>
       </c>
       <c r="B214" t="n">
-        <v>8.874810854861408</v>
+        <v>20.903578106662604</v>
       </c>
     </row>
     <row r="215">
@@ -1789,7 +1789,7 @@
         <v>34857.0</v>
       </c>
       <c r="B215" t="n">
-        <v>8.433939955568091</v>
+        <v>20.87768480411463</v>
       </c>
     </row>
     <row r="216">
@@ -1813,7 +1813,7 @@
         <v>34869.0</v>
       </c>
       <c r="B218" t="n">
-        <v>6.8204105434848294</v>
+        <v>20.55809470865548</v>
       </c>
     </row>
     <row r="219">
@@ -1821,7 +1821,7 @@
         <v>34873.0</v>
       </c>
       <c r="B219" t="n">
-        <v>5.003751903193201</v>
+        <v>19.835241534778795</v>
       </c>
     </row>
     <row r="220">
@@ -1829,7 +1829,7 @@
         <v>34877.0</v>
       </c>
       <c r="B220" t="n">
-        <v>4.969091762799305</v>
+        <v>19.857411577143978</v>
       </c>
     </row>
     <row r="221">
@@ -1845,7 +1845,7 @@
         <v>34885.0</v>
       </c>
       <c r="B222" t="n">
-        <v>6.394730941784107</v>
+        <v>20.233171352781884</v>
       </c>
     </row>
     <row r="223">
@@ -1853,7 +1853,7 @@
         <v>34889.0</v>
       </c>
       <c r="B223" t="n">
-        <v>10.648494059982951</v>
+        <v>9.768898278955538</v>
       </c>
     </row>
     <row r="224">
@@ -1861,7 +1861,7 @@
         <v>34893.0</v>
       </c>
       <c r="B224" t="n">
-        <v>10.510188977655432</v>
+        <v>9.387550709270228</v>
       </c>
     </row>
     <row r="225">
@@ -1869,7 +1869,7 @@
         <v>34897.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9.765431038788508</v>
+        <v>8.292271460752847</v>
       </c>
     </row>
     <row r="226">
@@ -1877,7 +1877,7 @@
         <v>34901.0</v>
       </c>
       <c r="B226" t="n">
-        <v>9.04434508183033</v>
+        <v>8.350802888897347</v>
       </c>
     </row>
     <row r="227">
@@ -1885,7 +1885,7 @@
         <v>34905.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8.937867634938263</v>
+        <v>8.325201506609252</v>
       </c>
     </row>
     <row r="228">
@@ -1893,7 +1893,7 @@
         <v>34909.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8.520422090325297</v>
+        <v>7.86326044300523</v>
       </c>
     </row>
     <row r="229">
@@ -1901,7 +1901,7 @@
         <v>34913.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8.593295573936139</v>
+        <v>8.281792950794818</v>
       </c>
     </row>
     <row r="230">
@@ -1909,7 +1909,7 @@
         <v>34917.0</v>
       </c>
       <c r="B230" t="n">
-        <v>8.302790162999912</v>
+        <v>8.10493076688593</v>
       </c>
     </row>
     <row r="231">
@@ -1917,7 +1917,7 @@
         <v>34921.0</v>
       </c>
       <c r="B231" t="n">
-        <v>8.127639588658644</v>
+        <v>7.659624702256314</v>
       </c>
     </row>
     <row r="232">
@@ -1925,7 +1925,7 @@
         <v>34925.0</v>
       </c>
       <c r="B232" t="n">
-        <v>8.288347901082822</v>
+        <v>8.31816834846447</v>
       </c>
     </row>
     <row r="233">
@@ -1933,7 +1933,7 @@
         <v>34929.0</v>
       </c>
       <c r="B233" t="n">
-        <v>7.7914653362071515</v>
+        <v>8.186698924612182</v>
       </c>
     </row>
     <row r="234">
@@ -1941,7 +1941,7 @@
         <v>34933.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8.5142428476394</v>
+        <v>8.447891248273175</v>
       </c>
     </row>
     <row r="235">
@@ -1949,7 +1949,7 @@
         <v>34937.0</v>
       </c>
       <c r="B235" t="n">
-        <v>4.223758043090782</v>
+        <v>17.240888102321623</v>
       </c>
     </row>
     <row r="236">
@@ -1957,7 +1957,7 @@
         <v>34941.0</v>
       </c>
       <c r="B236" t="n">
-        <v>5.9258431549906</v>
+        <v>15.293146193543906</v>
       </c>
     </row>
     <row r="237">
@@ -1965,7 +1965,7 @@
         <v>34945.0</v>
       </c>
       <c r="B237" t="n">
-        <v>15.317354297944716</v>
+        <v>4.395451378782593</v>
       </c>
     </row>
     <row r="238">
@@ -1973,7 +1973,7 @@
         <v>34949.0</v>
       </c>
       <c r="B238" t="n">
-        <v>14.603400585366668</v>
+        <v>5.853413886891149</v>
       </c>
     </row>
     <row r="239">
@@ -1981,7 +1981,7 @@
         <v>34953.0</v>
       </c>
       <c r="B239" t="n">
-        <v>10.443040908573357</v>
+        <v>8.854094960574072</v>
       </c>
     </row>
     <row r="240">
@@ -1989,7 +1989,7 @@
         <v>34957.0</v>
       </c>
       <c r="B240" t="n">
-        <v>8.89542570531838</v>
+        <v>12.387690620595588</v>
       </c>
     </row>
     <row r="241">
@@ -1997,7 +1997,7 @@
         <v>34961.0</v>
       </c>
       <c r="B241" t="n">
-        <v>13.965620590638522</v>
+        <v>11.268370586961876</v>
       </c>
     </row>
     <row r="242">
@@ -2005,7 +2005,7 @@
         <v>34965.0</v>
       </c>
       <c r="B242" t="n">
-        <v>9.109225711296409</v>
+        <v>24.792553764948927</v>
       </c>
     </row>
     <row r="243">
@@ -2013,7 +2013,7 @@
         <v>34969.0</v>
       </c>
       <c r="B243" t="n">
-        <v>10.844172837190316</v>
+        <v>12.922495509735576</v>
       </c>
     </row>
     <row r="244">
@@ -2021,7 +2021,7 @@
         <v>34973.0</v>
       </c>
       <c r="B244" t="n">
-        <v>27.45954553370028</v>
+        <v>9.877568538666347</v>
       </c>
     </row>
     <row r="245">
@@ -2029,7 +2029,7 @@
         <v>34977.0</v>
       </c>
       <c r="B245" t="n">
-        <v>13.392047101043001</v>
+        <v>16.469693870883937</v>
       </c>
     </row>
     <row r="246">
@@ -2037,7 +2037,7 @@
         <v>34981.0</v>
       </c>
       <c r="B246" t="n">
-        <v>10.350522228371052</v>
+        <v>11.814755804694228</v>
       </c>
     </row>
     <row r="247">
@@ -2045,7 +2045,7 @@
         <v>34985.0</v>
       </c>
       <c r="B247" t="n">
-        <v>17.321836672525833</v>
+        <v>21.63542826187328</v>
       </c>
     </row>
     <row r="248">
@@ -2053,7 +2053,7 @@
         <v>34989.0</v>
       </c>
       <c r="B248" t="n">
-        <v>12.183119820488246</v>
+        <v>11.862543700227931</v>
       </c>
     </row>
     <row r="249">
@@ -2061,7 +2061,7 @@
         <v>34993.0</v>
       </c>
       <c r="B249" t="n">
-        <v>16.43470672474884</v>
+        <v>5.656769540408019</v>
       </c>
     </row>
     <row r="250">
@@ -2069,7 +2069,7 @@
         <v>34997.0</v>
       </c>
       <c r="B250" t="n">
-        <v>11.28928072805581</v>
+        <v>8.500083449103201</v>
       </c>
     </row>
     <row r="251">
@@ -2077,7 +2077,7 @@
         <v>35001.0</v>
       </c>
       <c r="B251" t="n">
-        <v>9.477503820350508</v>
+        <v>11.703860600663987</v>
       </c>
     </row>
     <row r="252">
@@ -2085,7 +2085,7 @@
         <v>35005.0</v>
       </c>
       <c r="B252" t="n">
-        <v>7.154913473894423</v>
+        <v>14.683766796435933</v>
       </c>
     </row>
     <row r="253">
@@ -2093,7 +2093,7 @@
         <v>35009.0</v>
       </c>
       <c r="B253" t="n">
-        <v>3.7499999999999982</v>
+        <v>3.4589884860429554</v>
       </c>
     </row>
     <row r="254">
@@ -2109,7 +2109,7 @@
         <v>35017.0</v>
       </c>
       <c r="B255" t="n">
-        <v>10.619482566818276</v>
+        <v>17.2930317868142</v>
       </c>
     </row>
     <row r="256">
@@ -2133,7 +2133,7 @@
         <v>35029.0</v>
       </c>
       <c r="B258" t="n">
-        <v>11.601190129679914</v>
+        <v>19.337152979962692</v>
       </c>
     </row>
     <row r="259">
@@ -2141,7 +2141,7 @@
         <v>35033.0</v>
       </c>
       <c r="B259" t="n">
-        <v>24.71248404826861</v>
+        <v>23.967313234649414</v>
       </c>
     </row>
     <row r="260">
@@ -2149,7 +2149,7 @@
         <v>35037.0</v>
       </c>
       <c r="B260" t="n">
-        <v>22.67716966050813</v>
+        <v>23.821688492406473</v>
       </c>
     </row>
     <row r="261">
@@ -2173,7 +2173,7 @@
         <v>35049.0</v>
       </c>
       <c r="B263" t="n">
-        <v>27.170671219134682</v>
+        <v>19.500081757609326</v>
       </c>
     </row>
     <row r="264">
@@ -2181,7 +2181,7 @@
         <v>35053.0</v>
       </c>
       <c r="B264" t="n">
-        <v>21.78595734831604</v>
+        <v>22.417789875071893</v>
       </c>
     </row>
     <row r="265">
@@ -2189,7 +2189,7 @@
         <v>35057.0</v>
       </c>
       <c r="B265" t="n">
-        <v>11.61707182849245</v>
+        <v>20.1161482865264</v>
       </c>
     </row>
     <row r="266">
@@ -2213,7 +2213,7 @@
         <v>35069.0</v>
       </c>
       <c r="B268" t="n">
-        <v>45.69755238855763</v>
+        <v>15.700243046369716</v>
       </c>
     </row>
     <row r="269">
@@ -2221,7 +2221,7 @@
         <v>35073.0</v>
       </c>
       <c r="B269" t="n">
-        <v>36.37818724325605</v>
+        <v>3.558293002656407</v>
       </c>
     </row>
     <row r="270">
@@ -2229,7 +2229,7 @@
         <v>35077.0</v>
       </c>
       <c r="B270" t="n">
-        <v>24.734277793271982</v>
+        <v>22.759435652117922</v>
       </c>
     </row>
     <row r="271">
@@ -2253,7 +2253,7 @@
         <v>35089.0</v>
       </c>
       <c r="B273" t="n">
-        <v>16.09046290610387</v>
+        <v>21.57630540819899</v>
       </c>
     </row>
     <row r="274">
@@ -2261,7 +2261,7 @@
         <v>35093.0</v>
       </c>
       <c r="B274" t="n">
-        <v>21.896769112603298</v>
+        <v>23.228557111611856</v>
       </c>
     </row>
     <row r="275">
@@ -2269,7 +2269,7 @@
         <v>35097.0</v>
       </c>
       <c r="B275" t="n">
-        <v>94.66669338877948</v>
+        <v>94.13125407065709</v>
       </c>
     </row>
     <row r="276">
@@ -2293,7 +2293,7 @@
         <v>35109.0</v>
       </c>
       <c r="B278" t="n">
-        <v>60.86852299042116</v>
+        <v>19.214814647383914</v>
       </c>
     </row>
     <row r="279">
@@ -2301,7 +2301,7 @@
         <v>35113.0</v>
       </c>
       <c r="B279" t="n">
-        <v>54.17244094313886</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="280">
@@ -2309,7 +2309,7 @@
         <v>35117.0</v>
       </c>
       <c r="B280" t="n">
-        <v>38.88990857439578</v>
+        <v>17.34925423655516</v>
       </c>
     </row>
     <row r="281">
@@ -2333,7 +2333,7 @@
         <v>35129.0</v>
       </c>
       <c r="B283" t="n">
-        <v>23.612840832687645</v>
+        <v>24.409613494074154</v>
       </c>
     </row>
     <row r="284">
@@ -2341,7 +2341,7 @@
         <v>35133.0</v>
       </c>
       <c r="B284" t="n">
-        <v>20.662919410473144</v>
+        <v>20.945315699693356</v>
       </c>
     </row>
     <row r="285">
@@ -2349,7 +2349,7 @@
         <v>35137.0</v>
       </c>
       <c r="B285" t="n">
-        <v>33.73713343953035</v>
+        <v>33.35941093957214</v>
       </c>
     </row>
     <row r="286">
@@ -2357,7 +2357,7 @@
         <v>35141.0</v>
       </c>
       <c r="B286" t="n">
-        <v>37.11899464676879</v>
+        <v>18.08804522634412</v>
       </c>
     </row>
     <row r="287">
@@ -2365,7 +2365,7 @@
         <v>35145.0</v>
       </c>
       <c r="B287" t="n">
-        <v>27.301690311912054</v>
+        <v>10.734815396593415</v>
       </c>
     </row>
     <row r="288">
@@ -2373,7 +2373,7 @@
         <v>35149.0</v>
       </c>
       <c r="B288" t="n">
-        <v>20.783231379081002</v>
+        <v>14.314478857630212</v>
       </c>
     </row>
     <row r="289">
@@ -2381,7 +2381,7 @@
         <v>35153.0</v>
       </c>
       <c r="B289" t="n">
-        <v>17.871719092848675</v>
+        <v>15.420541912240651</v>
       </c>
     </row>
     <row r="290">
@@ -2389,7 +2389,7 @@
         <v>35157.0</v>
       </c>
       <c r="B290" t="n">
-        <v>16.40146907964061</v>
+        <v>14.704525613804128</v>
       </c>
     </row>
     <row r="291">
@@ -2397,7 +2397,7 @@
         <v>35161.0</v>
       </c>
       <c r="B291" t="n">
-        <v>12.431841319236675</v>
+        <v>26.524405937707343</v>
       </c>
     </row>
     <row r="292">
@@ -2405,7 +2405,7 @@
         <v>35165.0</v>
       </c>
       <c r="B292" t="n">
-        <v>11.58377803540122</v>
+        <v>23.133344753283783</v>
       </c>
     </row>
     <row r="293">
@@ -2413,7 +2413,7 @@
         <v>35169.0</v>
       </c>
       <c r="B293" t="n">
-        <v>26.108588949577452</v>
+        <v>19.42290763845223</v>
       </c>
     </row>
     <row r="294">
@@ -2421,7 +2421,7 @@
         <v>35173.0</v>
       </c>
       <c r="B294" t="n">
-        <v>23.11068046406652</v>
+        <v>15.12210545020598</v>
       </c>
     </row>
     <row r="295">
@@ -2429,7 +2429,7 @@
         <v>35177.0</v>
       </c>
       <c r="B295" t="n">
-        <v>23.998764909572515</v>
+        <v>27.614954622009066</v>
       </c>
     </row>
     <row r="296">
@@ -2437,7 +2437,7 @@
         <v>35181.0</v>
       </c>
       <c r="B296" t="n">
-        <v>72.51139624058231</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="297">
@@ -2445,7 +2445,7 @@
         <v>35185.0</v>
       </c>
       <c r="B297" t="n">
-        <v>22.551156532779164</v>
+        <v>12.97500103543234</v>
       </c>
     </row>
     <row r="298">
@@ -2453,7 +2453,7 @@
         <v>35189.0</v>
       </c>
       <c r="B298" t="n">
-        <v>16.131046787771574</v>
+        <v>12.913803407658984</v>
       </c>
     </row>
     <row r="299">
@@ -2461,7 +2461,7 @@
         <v>35193.0</v>
       </c>
       <c r="B299" t="n">
-        <v>16.869344427130397</v>
+        <v>12.444247037518917</v>
       </c>
     </row>
     <row r="300">
@@ -2469,7 +2469,7 @@
         <v>35197.0</v>
       </c>
       <c r="B300" t="n">
-        <v>12.005441034965695</v>
+        <v>19.026937249183472</v>
       </c>
     </row>
     <row r="301">
@@ -2477,7 +2477,7 @@
         <v>35201.0</v>
       </c>
       <c r="B301" t="n">
-        <v>10.70508032196666</v>
+        <v>20.57526446649506</v>
       </c>
     </row>
     <row r="302">
@@ -2485,7 +2485,7 @@
         <v>35205.0</v>
       </c>
       <c r="B302" t="n">
-        <v>20.141008654820943</v>
+        <v>16.18154760305626</v>
       </c>
     </row>
     <row r="303">
@@ -2493,7 +2493,7 @@
         <v>35209.0</v>
       </c>
       <c r="B303" t="n">
-        <v>23.541090127960622</v>
+        <v>9.044022212496307</v>
       </c>
     </row>
     <row r="304">
@@ -2501,7 +2501,7 @@
         <v>35213.0</v>
       </c>
       <c r="B304" t="n">
-        <v>16.678973443370804</v>
+        <v>15.72009263166019</v>
       </c>
     </row>
     <row r="305">
@@ -2509,7 +2509,7 @@
         <v>35217.0</v>
       </c>
       <c r="B305" t="n">
-        <v>12.43098921029153</v>
+        <v>11.951737205111945</v>
       </c>
     </row>
     <row r="306">
@@ -2517,7 +2517,7 @@
         <v>35221.0</v>
       </c>
       <c r="B306" t="n">
-        <v>11.992231019494998</v>
+        <v>10.296078212170015</v>
       </c>
     </row>
     <row r="307">
@@ -2525,7 +2525,7 @@
         <v>35225.0</v>
       </c>
       <c r="B307" t="n">
-        <v>11.199460987074618</v>
+        <v>9.332518212143981</v>
       </c>
     </row>
     <row r="308">
@@ -2533,7 +2533,7 @@
         <v>35229.0</v>
       </c>
       <c r="B308" t="n">
-        <v>10.54235183783011</v>
+        <v>9.756228589118566</v>
       </c>
     </row>
     <row r="309">
@@ -2541,7 +2541,7 @@
         <v>35233.0</v>
       </c>
       <c r="B309" t="n">
-        <v>10.22652829307791</v>
+        <v>10.759109001752043</v>
       </c>
     </row>
     <row r="310">
@@ -2549,7 +2549,7 @@
         <v>35237.0</v>
       </c>
       <c r="B310" t="n">
-        <v>5.521319029022156</v>
+        <v>19.015474232675572</v>
       </c>
     </row>
     <row r="311">
@@ -2557,7 +2557,7 @@
         <v>35241.0</v>
       </c>
       <c r="B311" t="n">
-        <v>9.803160308346468</v>
+        <v>11.79426722458074</v>
       </c>
     </row>
     <row r="312">
@@ -2565,7 +2565,7 @@
         <v>35245.0</v>
       </c>
       <c r="B312" t="n">
-        <v>17.517670801543346</v>
+        <v>3.9396351288725935</v>
       </c>
     </row>
     <row r="313">
@@ -2573,7 +2573,7 @@
         <v>35249.0</v>
       </c>
       <c r="B313" t="n">
-        <v>11.529264051384109</v>
+        <v>8.395596829200581</v>
       </c>
     </row>
     <row r="314">
@@ -2581,7 +2581,7 @@
         <v>35253.0</v>
       </c>
       <c r="B314" t="n">
-        <v>9.863963488838154</v>
+        <v>8.571222215565292</v>
       </c>
     </row>
     <row r="315">
@@ -2589,7 +2589,7 @@
         <v>35257.0</v>
       </c>
       <c r="B315" t="n">
-        <v>9.678351356551186</v>
+        <v>9.275873187769536</v>
       </c>
     </row>
     <row r="316">
@@ -2597,7 +2597,7 @@
         <v>35261.0</v>
       </c>
       <c r="B316" t="n">
-        <v>8.735130402015503</v>
+        <v>8.779451298765393</v>
       </c>
     </row>
     <row r="317">
@@ -2605,7 +2605,7 @@
         <v>35265.0</v>
       </c>
       <c r="B317" t="n">
-        <v>9.227803218691061</v>
+        <v>10.75206191970423</v>
       </c>
     </row>
     <row r="318">
@@ -2613,7 +2613,7 @@
         <v>35269.0</v>
       </c>
       <c r="B318" t="n">
-        <v>4.355999353670235</v>
+        <v>19.502338645328898</v>
       </c>
     </row>
     <row r="319">
@@ -2621,7 +2621,7 @@
         <v>35273.0</v>
       </c>
       <c r="B319" t="n">
-        <v>5.628020786661296</v>
+        <v>20.13703536910759</v>
       </c>
     </row>
     <row r="320">
@@ -2629,7 +2629,7 @@
         <v>35277.0</v>
       </c>
       <c r="B320" t="n">
-        <v>4.423894595811297</v>
+        <v>19.51871466221442</v>
       </c>
     </row>
     <row r="321">
@@ -2653,7 +2653,7 @@
         <v>35289.0</v>
       </c>
       <c r="B323" t="n">
-        <v>3.5347851926108635</v>
+        <v>19.439754051629453</v>
       </c>
     </row>
     <row r="324">
@@ -2661,7 +2661,7 @@
         <v>35293.0</v>
       </c>
       <c r="B324" t="n">
-        <v>3.7499999999999982</v>
+        <v>25.240049311505498</v>
       </c>
     </row>
     <row r="325">
@@ -2669,7 +2669,7 @@
         <v>35297.0</v>
       </c>
       <c r="B325" t="n">
-        <v>10.115133468513143</v>
+        <v>6.626605951165019</v>
       </c>
     </row>
     <row r="326">
@@ -2677,7 +2677,7 @@
         <v>35301.0</v>
       </c>
       <c r="B326" t="n">
-        <v>12.618709389832869</v>
+        <v>7.969885956123787</v>
       </c>
     </row>
     <row r="327">
@@ -2685,7 +2685,7 @@
         <v>35306.0</v>
       </c>
       <c r="B327" t="n">
-        <v>10.882883026823942</v>
+        <v>8.699010162032273</v>
       </c>
     </row>
     <row r="328">
@@ -2693,7 +2693,7 @@
         <v>35310.0</v>
       </c>
       <c r="B328" t="n">
-        <v>9.952154969233442</v>
+        <v>8.762313935034015</v>
       </c>
     </row>
     <row r="329">
@@ -2701,7 +2701,7 @@
         <v>35314.0</v>
       </c>
       <c r="B329" t="n">
-        <v>9.606255956757767</v>
+        <v>8.725804074787504</v>
       </c>
     </row>
     <row r="330">
@@ -2709,7 +2709,7 @@
         <v>35318.0</v>
       </c>
       <c r="B330" t="n">
-        <v>9.21316956264283</v>
+        <v>8.74426872893364</v>
       </c>
     </row>
     <row r="331">
@@ -2717,7 +2717,7 @@
         <v>35322.0</v>
       </c>
       <c r="B331" t="n">
-        <v>9.078226981537776</v>
+        <v>8.92931598359603</v>
       </c>
     </row>
     <row r="332">
@@ -2725,7 +2725,7 @@
         <v>35326.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2.399553074760429</v>
+        <v>22.248006350376876</v>
       </c>
     </row>
     <row r="333">
@@ -2733,7 +2733,7 @@
         <v>35330.0</v>
       </c>
       <c r="B333" t="n">
-        <v>1.0294986124065701</v>
+        <v>24.787325978751426</v>
       </c>
     </row>
     <row r="334">
@@ -2741,7 +2741,7 @@
         <v>35334.0</v>
       </c>
       <c r="B334" t="n">
-        <v>21.023227766805153</v>
+        <v>8.212164006094179</v>
       </c>
     </row>
     <row r="335">
@@ -2749,7 +2749,7 @@
         <v>35338.0</v>
       </c>
       <c r="B335" t="n">
-        <v>21.52804440475821</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="336">
@@ -2757,7 +2757,7 @@
         <v>35342.0</v>
       </c>
       <c r="B336" t="n">
-        <v>11.279321165940825</v>
+        <v>16.0154152885169</v>
       </c>
     </row>
     <row r="337">
@@ -2765,7 +2765,7 @@
         <v>35346.0</v>
       </c>
       <c r="B337" t="n">
-        <v>3.078817424918126</v>
+        <v>25.92679179615045</v>
       </c>
     </row>
     <row r="338">
@@ -2773,7 +2773,7 @@
         <v>35350.0</v>
       </c>
       <c r="B338" t="n">
-        <v>15.91542170005185</v>
+        <v>12.001162717418524</v>
       </c>
     </row>
     <row r="339">
@@ -2781,7 +2781,7 @@
         <v>35354.0</v>
       </c>
       <c r="B339" t="n">
-        <v>21.971998409241507</v>
+        <v>66.93433069020047</v>
       </c>
     </row>
     <row r="340">
@@ -2789,7 +2789,7 @@
         <v>35358.0</v>
       </c>
       <c r="B340" t="n">
-        <v>1.0741469953805884</v>
+        <v>21.040129526251235</v>
       </c>
     </row>
     <row r="341">
@@ -2797,7 +2797,7 @@
         <v>35362.0</v>
       </c>
       <c r="B341" t="n">
-        <v>33.92458184221764</v>
+        <v>44.67768833342291</v>
       </c>
     </row>
     <row r="342">
@@ -2805,7 +2805,7 @@
         <v>35366.0</v>
       </c>
       <c r="B342" t="n">
-        <v>22.564188600246663</v>
+        <v>44.768952342884695</v>
       </c>
     </row>
     <row r="343">
@@ -2813,7 +2813,7 @@
         <v>35370.0</v>
       </c>
       <c r="B343" t="n">
-        <v>85.69612964120468</v>
+        <v>43.34200156138513</v>
       </c>
     </row>
     <row r="344">
@@ -2821,7 +2821,7 @@
         <v>35374.0</v>
       </c>
       <c r="B344" t="n">
-        <v>42.31803206684135</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="345">
@@ -2829,7 +2829,7 @@
         <v>35379.0</v>
       </c>
       <c r="B345" t="n">
-        <v>25.11781519324506</v>
+        <v>24.573399119345503</v>
       </c>
     </row>
     <row r="346">
@@ -2837,7 +2837,7 @@
         <v>35383.0</v>
       </c>
       <c r="B346" t="n">
-        <v>15.192338836701818</v>
+        <v>13.179003454278034</v>
       </c>
     </row>
     <row r="347">
@@ -2845,7 +2845,7 @@
         <v>35387.0</v>
       </c>
       <c r="B347" t="n">
-        <v>59.49267548717748</v>
+        <v>76.58685630238443</v>
       </c>
     </row>
     <row r="348">
@@ -2853,7 +2853,7 @@
         <v>35391.0</v>
       </c>
       <c r="B348" t="n">
-        <v>60.504442552968314</v>
+        <v>98.1870434098773</v>
       </c>
     </row>
     <row r="349">
@@ -2861,7 +2861,7 @@
         <v>35395.0</v>
       </c>
       <c r="B349" t="n">
-        <v>76.06382163762957</v>
+        <v>36.24966352134351</v>
       </c>
     </row>
     <row r="350">
@@ -2869,7 +2869,7 @@
         <v>35399.0</v>
       </c>
       <c r="B350" t="n">
-        <v>61.055566503203345</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="351">
@@ -2877,7 +2877,7 @@
         <v>35403.0</v>
       </c>
       <c r="B351" t="n">
-        <v>29.710589013247947</v>
+        <v>19.751588068078426</v>
       </c>
     </row>
     <row r="352">
@@ -2885,7 +2885,7 @@
         <v>35407.0</v>
       </c>
       <c r="B352" t="n">
-        <v>3.7499999999999982</v>
+        <v>107.08313951803994</v>
       </c>
     </row>
     <row r="353">
@@ -2893,7 +2893,7 @@
         <v>35411.0</v>
       </c>
       <c r="B353" t="n">
-        <v>22.545780209301864</v>
+        <v>32.81872864989785</v>
       </c>
     </row>
     <row r="354">
@@ -2901,7 +2901,7 @@
         <v>35415.0</v>
       </c>
       <c r="B354" t="n">
-        <v>84.3588688327409</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="355">
@@ -2909,7 +2909,7 @@
         <v>35419.0</v>
       </c>
       <c r="B355" t="n">
-        <v>33.594097616442696</v>
+        <v>33.39831649593271</v>
       </c>
     </row>
     <row r="356">
@@ -2917,7 +2917,7 @@
         <v>35423.0</v>
       </c>
       <c r="B356" t="n">
-        <v>30.343965528808248</v>
+        <v>24.389278160553715</v>
       </c>
     </row>
   </sheetData>
